--- a/biology/Botanique/Erysiphe/Erysiphe.xlsx
+++ b/biology/Botanique/Erysiphe/Erysiphe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erysiphe est un genre de champignons ascomycètes de la famille des Erysiphaceae, originaire d'Europe.
 Ce champignon est l'un des agents pathogènes responsables de l'oïdium du chêne.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (22 septembre 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (22 septembre 2014) :
 Erysiphe abbreviata
 Erysiphe abeliae
 Erysiphe abeliicola
@@ -906,7 +920,7 @@
 Erysiphe yamadae
 Erysiphe yanshanensis
 Erysiphe zelkowae
-Selon Index Fungorum                                      (22 septembre 2014)[2] :
+Selon Index Fungorum                                      (22 septembre 2014) :
 Erysiphe abbreviata (Peck) U. Braun &amp; S. Takam. 2000
 Erysiphe abeliae R.Y. Zheng &amp; G.Q. Chen 1980
 Erysiphe abeliicola U. Braun &amp; S. Takam. 2000
@@ -1036,9 +1050,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (22 septembre 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (22 septembre 2014) :
 Erysiphe abbreviata
 Erysiphe abeliicola
 Erysiphe adunca
